--- a/feedback_forms/processed_versions/xl_workbooks/landfill_operator_feedback_v070_populated_02.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/landfill_operator_feedback_v070_populated_02.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\one_drive\code\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB98C50-23F5-43F3-BCBC-FF70E147074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="vY3M817KAomZyhlm4oS6cOyuUSxWaTaz7lVX62BALQGX5cCDz411RVbfnvbnpvf21HlxJBaGYtmscNkzHgnKag==" workbookSaltValue="+DW2WdW8uRq+VBPkAiodVA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7D9A27-F5FA-472A-88DB-B07E99A684AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qBt8JrgCQuMd7IijrDBejxuy3g5xsXzYK/HIwPr3FBxlodnfs3QHb2WfjMD6mW9KeOVextGr9dKaVQ/zmjtMvA==" workbookSaltValue="qLxfFzMTEo4ATCjIvtdZ0A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="5007" yWindow="2733" windowWidth="17413" windowHeight="11467" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="5787" yWindow="1787" windowWidth="19200" windowHeight="11760" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -4764,7 +4764,7 @@
       <c r="G73" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Nxmx14c/xh/1eCFWGRpZm4SQG3n0jL7dP8UexS5j75+YdBcRD4u7dyGUABbveoNs4LfpbnTze5LpASDK+PFtng==" saltValue="zjcfnmik8tk9YV1sHAXvOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y44S3w2PEQCsH2QTaGZhMZwJIF8990BRrOKiGdUwdCiaG5OjoGLyzzyYrYaHinioxt1/NrD5AS5y3OfKilqb6w==" saltValue="zIqgmJxJCcTVDTqk5asTVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D42">
     <cfRule type="expression" dxfId="13" priority="11">
       <formula xml:space="preserve"> IF(LEFT($D$42, 13)="Please Select", TRUE)</formula>
@@ -7140,7 +7140,7 @@
       <c r="G122" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n5PpPa3ItS3zkf9wzXliwRGAAL/TfAFYzkS1u/PxF75V13cAGW3fORf+QMIrHg43hNt6Ve2EsBUxlevO5p5S+A==" saltValue="cyzYdGp2UJ2n4JDTjzRNog==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pK4lCRuUucp9ZM5cLyOqbNgIV5EVUIG/+E/+JkLCPgpM2O3ewrIM6VdQw1+rofiAnuVLx45kiCzGW4eVhKzVRA==" saltValue="4wov+jZQIX+Ap/VcQAob4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$11</formula>
@@ -8848,7 +8848,7 @@
       <c r="G219"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mgCtSpD7LmXYqrmD7AjQZwJgjPRZueMA9CQJYvo44UP62zhVqlfUnfvwUyRKYf0JVCOs6owePVmfWR/1kwpd5Q==" saltValue="kQ/i3BPV3g/d9SwreDspDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pGzhf3OKBKsOKAXF3i50GfH9Yu0+AYvKq8/SS9DzrHCj3jalCWyMazQdeH0J7ZcVI4/HmNKPOJB0oivmgzfn+w==" saltValue="RzrtEEFnykDSuKvbY5IPEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
@@ -8928,7 +8928,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RjoOt2SWN5ZkO7c+RlOgxk0WYLKUZ2CC6qiHEUYQnr0cL5/QDrAgRrBGI0noFHBafzLPF1PfJc8VaxjSWLTYJQ==" saltValue="UNoUT7JlSHxgvroJWSxjhA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5Ayl7rDDJPkDLXZ+OyjIsVhs/IJHnM11ShMHbt9Zj/ys5DzguIjtDz3qVDqDfS+ba35FcwEpMFvoRqK1d4pguQ==" saltValue="/C+VIQBataf3qnPYBGeNyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9015,7 +9015,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6WQeS94U4yjyJ8zaFKyJ6etz1h93FS3WX4TuUrt11u0CUBycqeoxEjfNMqnIBDSxTkbwHi7GuUCuWI/UOYJArQ==" saltValue="5aqMCn34VQamL6dseFJufw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xSssEUJD5GLnakjTfw576OVJH93ZgiVZMeBcoYH3wDYGwJ2GwUzW25Ij9FFQiQs/rSsHs/8yRqw9y8F/OO2bfQ==" saltValue="DU4vh+0uz/jRGtvvXR10dQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9027,7 +9027,7 @@
   <dimension ref="A2:F48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F48"/>
+      <selection activeCell="D27" sqref="D27:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9740,7 +9740,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VnFOIUYgWwy54sDUK3ovnYDW8iYnZ253KAN72lzzFPHaJSqZwaHjNS34isqhveO+5j/NHqjkiwU9rmFWJqXuzw==" saltValue="52wZeMH/FX2EXk1NH1vV+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c08jDrOWCeAU0BiakYRuIa3KWiJJffebpIi+mYVhgZLKqOsqtbf5RgVDu4hxVMOWDAsjn0fbQKD0ZM67/zyBTw==" saltValue="Fs6v62U2AovKaWY974nxWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:F48">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
@@ -10100,12 +10100,32 @@
       <c r="M26" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VwJlKEdUa2d6FHnYCytBv5G8UoZUdgoWcJGdel8EpnF4T15YAfRvfoWRk2Fzdvvss+vBp+oQZtzTB2RAg6gCmg==" saltValue="NkJG9DFU1K/CmFoOV2bKyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lfFASv6oAiLINUCn9fcTdqY4vsD+nZgw3SQ06f0PTt2lsNXTvIewPVKZzOxKV0BaBpQ2sosoNSyyNpeQiNEF9w==" saltValue="GPAeP8onYd5Wd3k+rjYY2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -10340,27 +10360,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10379,25 +10398,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>

--- a/feedback_forms/processed_versions/xl_workbooks/landfill_operator_feedback_v070_populated_02.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/landfill_operator_feedback_v070_populated_02.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\one_drive\code\pycharm\feedback_portal\feedback_forms\current_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7D9A27-F5FA-472A-88DB-B07E99A684AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qBt8JrgCQuMd7IijrDBejxuy3g5xsXzYK/HIwPr3FBxlodnfs3QHb2WfjMD6mW9KeOVextGr9dKaVQ/zmjtMvA==" workbookSaltValue="qLxfFzMTEo4ATCjIvtdZ0A==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A65E68-A854-43D8-8AEA-785917AB20E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8yHPDRgXE7MSrm7XN62rzeP2wtBDAHlSjfXnefL+BIh5lCqgdc/rzJUhGzdAy9gLacVs15Imo3v9bD1MmeFYfw==" workbookSaltValue="pcjHzzKPNkqqODw7m1DlFA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="5787" yWindow="1787" windowWidth="19200" windowHeight="11760" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="31410" yWindow="2625" windowWidth="21600" windowHeight="11100" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -3928,17 +3928,17 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="19" customWidth="1"/>
     <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="E2" s="31"/>
       <c r="F2" s="49"/>
     </row>
-    <row r="3" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
@@ -3992,13 +3992,13 @@
       <c r="E3" s="31"/>
       <c r="F3" s="50"/>
     </row>
-    <row r="4" spans="2:33" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:33" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -4068,12 +4068,12 @@
       <c r="AF6" s="52"/>
       <c r="AG6" s="52"/>
     </row>
-    <row r="7" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG7" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="75" t="s">
         <v>389</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="E8" s="35"/>
       <c r="F8" s="49"/>
     </row>
-    <row r="9" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="62" t="s">
         <v>284</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="E9" s="35"/>
       <c r="F9" s="49"/>
     </row>
-    <row r="10" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="63" t="s">
         <v>285</v>
       </c>
@@ -4100,7 +4100,7 @@
       <c r="E10" s="35"/>
       <c r="F10" s="49"/>
     </row>
-    <row r="11" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="64" t="s">
         <v>286</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="E11" s="35"/>
       <c r="F11" s="49"/>
     </row>
-    <row r="12" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>282</v>
       </c>
@@ -4118,7 +4118,7 @@
       <c r="E12" s="35"/>
       <c r="F12" s="49"/>
     </row>
-    <row r="13" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
         <v>283</v>
       </c>
@@ -4127,7 +4127,7 @@
       <c r="E13" s="35"/>
       <c r="F13" s="49"/>
     </row>
-    <row r="14" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="75" t="s">
         <v>390</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="E14" s="35"/>
       <c r="F14" s="49"/>
     </row>
-    <row r="15" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="75" t="s">
         <v>391</v>
       </c>
@@ -4145,7 +4145,7 @@
       <c r="E15" s="35"/>
       <c r="F15" s="49"/>
     </row>
-    <row r="16" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="61" t="s">
         <v>287</v>
       </c>
@@ -4154,7 +4154,7 @@
       <c r="E16" s="35"/>
       <c r="F16" s="49"/>
     </row>
-    <row r="17" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="75" t="s">
         <v>392</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="E17" s="35"/>
       <c r="F17" s="49"/>
     </row>
-    <row r="18" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="65" t="s">
         <v>288</v>
       </c>
@@ -4172,12 +4172,12 @@
       <c r="E18" s="35"/>
       <c r="F18" s="49"/>
     </row>
-    <row r="20" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG20" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -4211,12 +4211,12 @@
       <c r="AF21" s="52"/>
       <c r="AG21" s="52"/>
     </row>
-    <row r="22" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG22" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74" t="s">
         <v>371</v>
       </c>
@@ -4227,7 +4227,7 @@
       <c r="E23" s="48"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74" t="s">
         <v>372</v>
       </c>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E24" s="35"/>
     </row>
-    <row r="25" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="74" t="s">
         <v>373</v>
       </c>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="E25" s="35"/>
     </row>
-    <row r="26" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="75" t="s">
         <v>395</v>
       </c>
@@ -4258,7 +4258,7 @@
       <c r="E26" s="48"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="74" t="s">
         <v>374</v>
       </c>
@@ -4269,7 +4269,7 @@
       <c r="E27" s="48"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
         <v>396</v>
       </c>
@@ -4281,12 +4281,12 @@
       <c r="F28" s="49"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG29" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
@@ -4320,12 +4320,12 @@
       <c r="AF30" s="52"/>
       <c r="AG30" s="52"/>
     </row>
-    <row r="31" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG31" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="77" t="s">
         <v>375</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="E32" s="50"/>
       <c r="G32" s="36"/>
     </row>
-    <row r="33" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="77" t="s">
         <v>376</v>
       </c>
@@ -4347,7 +4347,7 @@
       <c r="E33" s="50"/>
       <c r="G33" s="36"/>
     </row>
-    <row r="34" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="77" t="s">
         <v>377</v>
       </c>
@@ -4358,7 +4358,7 @@
       <c r="E34" s="50"/>
       <c r="G34" s="36"/>
     </row>
-    <row r="35" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="77" t="s">
         <v>393</v>
       </c>
@@ -4369,7 +4369,7 @@
       <c r="E35" s="50"/>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="77" t="s">
         <v>394</v>
       </c>
@@ -4380,12 +4380,12 @@
       <c r="E36" s="50"/>
       <c r="G36" s="36"/>
     </row>
-    <row r="37" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG37" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
@@ -4419,12 +4419,12 @@
       <c r="AF38" s="52"/>
       <c r="AG38" s="52"/>
     </row>
-    <row r="39" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG39" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="81" t="s">
         <v>427</v>
       </c>
@@ -4435,7 +4435,7 @@
       <c r="E40" s="37"/>
       <c r="G40" s="36"/>
     </row>
-    <row r="41" spans="2:33" s="20" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:33" s="20" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="38" t="s">
         <v>378</v>
       </c>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="77" t="s">
         <v>333</v>
       </c>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="G42" s="36"/>
     </row>
-    <row r="43" spans="2:33" s="20" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:33" s="20" customFormat="1" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B43" s="38" t="s">
         <v>303</v>
       </c>
@@ -4465,12 +4465,12 @@
       </c>
       <c r="G43" s="36"/>
     </row>
-    <row r="44" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG44" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="51"/>
@@ -4504,13 +4504,13 @@
       <c r="AF45" s="52"/>
       <c r="AG45" s="52"/>
     </row>
-    <row r="46" spans="2:33" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="49"/>
       <c r="AG46" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="30" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:33" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="38" t="s">
         <v>379</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:33" s="20" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B48" s="58" t="s">
         <v>343</v>
       </c>
@@ -4533,7 +4533,7 @@
       <c r="E48" s="30"/>
       <c r="G48" s="36"/>
     </row>
-    <row r="49" spans="2:33" s="20" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:33" s="20" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="38" t="s">
         <v>344</v>
       </c>
@@ -4544,7 +4544,7 @@
       <c r="E49" s="30"/>
       <c r="G49" s="36"/>
     </row>
-    <row r="50" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="38" t="s">
         <v>359</v>
       </c>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="G50" s="36"/>
     </row>
-    <row r="51" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="38" t="s">
         <v>361</v>
       </c>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="G51" s="36"/>
     </row>
-    <row r="52" spans="2:33" s="20" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:33" s="20" customFormat="1" ht="47.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="38" t="s">
         <v>380</v>
       </c>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="G52" s="36"/>
     </row>
-    <row r="53" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="81" t="s">
         <v>426</v>
       </c>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="G53" s="36"/>
     </row>
-    <row r="54" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="77" t="s">
         <v>318</v>
       </c>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="G54" s="36"/>
     </row>
-    <row r="55" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="77" t="s">
         <v>319</v>
       </c>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="G55" s="36"/>
     </row>
-    <row r="56" spans="2:33" s="20" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:33" s="20" customFormat="1" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B56" s="38" t="s">
         <v>370</v>
       </c>
@@ -4611,12 +4611,12 @@
       </c>
       <c r="G56" s="36"/>
     </row>
-    <row r="57" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="50"/>
       <c r="C57" s="50"/>
       <c r="D57" s="50"/>
     </row>
-    <row r="58" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
       <c r="D58" s="51"/>
@@ -4650,12 +4650,12 @@
       <c r="AF58" s="52"/>
       <c r="AG58" s="52"/>
     </row>
-    <row r="59" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG59" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="77" t="s">
         <v>381</v>
       </c>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="G60" s="36"/>
     </row>
-    <row r="61" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="77" t="s">
         <v>382</v>
       </c>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="G61" s="36"/>
     </row>
-    <row r="62" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
         <v>383</v>
       </c>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="G62" s="36"/>
     </row>
-    <row r="63" spans="2:33" s="20" customFormat="1" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:33" s="20" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="38" t="s">
         <v>384</v>
       </c>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="G63" s="36"/>
     </row>
-    <row r="64" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="77" t="s">
         <v>315</v>
       </c>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="G64" s="36"/>
     </row>
-    <row r="65" spans="2:7" s="20" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:7" s="20" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="77" t="s">
         <v>397</v>
       </c>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="G65" s="36"/>
     </row>
-    <row r="66" spans="2:7" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:7" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="77" t="s">
         <v>316</v>
       </c>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="G66" s="36"/>
     </row>
-    <row r="67" spans="2:7" s="20" customFormat="1" ht="15.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" s="20" customFormat="1" ht="31.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B67" s="77" t="s">
         <v>398</v>
       </c>
@@ -4727,15 +4727,15 @@
       </c>
       <c r="G67" s="36"/>
     </row>
-    <row r="68" spans="2:7" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="50"/>
       <c r="D68" s="39"/>
     </row>
-    <row r="69" spans="2:7" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G69" s="36"/>
     </row>
-    <row r="70" spans="2:7" s="40" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="71" spans="2:7" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:7" s="20" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B71" s="77" t="s">
         <v>385</v>
       </c>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="G71" s="36"/>
     </row>
-    <row r="72" spans="2:7" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" s="20" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B72" s="77" t="s">
         <v>386</v>
       </c>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="G72" s="36"/>
     </row>
-    <row r="73" spans="2:7" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="38" t="s">
         <v>425</v>
       </c>
@@ -4764,7 +4764,7 @@
       <c r="G73" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y44S3w2PEQCsH2QTaGZhMZwJIF8990BRrOKiGdUwdCiaG5OjoGLyzzyYrYaHinioxt1/NrD5AS5y3OfKilqb6w==" saltValue="zIqgmJxJCcTVDTqk5asTVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NqYDHl6N4EsT4CQRnJIeN7yAL+DKNMv2pIvjhaap0Nna5+btN3LRgkMsNb7ECslIyfQVsKmpMDG+BvLh+//ncg==" saltValue="evnRCEsALCSEiQ4LXfL4Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D42">
     <cfRule type="expression" dxfId="13" priority="11">
       <formula xml:space="preserve"> IF(LEFT($D$42, 13)="Please Select", TRUE)</formula>
@@ -4929,18 +4929,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
@@ -4948,7 +4948,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G3" s="4"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -4962,7 +4962,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4970,15 +4970,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>20</v>
       </c>
@@ -4997,7 +4997,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>22</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
         <v>24</v>
       </c>
@@ -5019,7 +5019,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>26</v>
       </c>
@@ -5030,15 +5030,15 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="20"/>
       <c r="C14" s="23"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>28</v>
       </c>
@@ -5055,7 +5055,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -5069,7 +5069,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -5100,7 +5100,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="2:18" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <v>1</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="20">
         <v>2</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="20">
         <v>3</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="20">
         <v>4</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:18" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="20">
         <v>5</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20">
         <v>6</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="20">
         <v>7</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:18" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="20">
         <v>8</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="20">
         <v>9</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="20">
         <v>10</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="20">
         <v>11</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="20">
         <v>12</v>
       </c>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="G30" s="23"/>
     </row>
-    <row r="31" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="20">
         <v>13</v>
       </c>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="G31" s="23"/>
     </row>
-    <row r="32" spans="2:18" s="20" customFormat="1" ht="157.69999999999999" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" s="20" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="B32" s="20">
         <v>14</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="20">
         <v>15</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="20" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B34" s="20">
         <v>16</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="20">
         <v>17</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="20">
         <v>18</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B37" s="20">
         <v>19</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B38" s="20">
         <v>20</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="20">
         <v>21</v>
       </c>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="G39" s="23"/>
     </row>
-    <row r="40" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B40" s="20">
         <v>22</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="20">
         <v>23</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="20">
         <v>24</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B43" s="20">
         <v>25</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="2:7" s="20" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="20" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="B44" s="20">
         <v>26</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B45" s="20">
         <v>27</v>
       </c>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="20">
         <v>28</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="2:7" s="20" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="20" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B47" s="20">
         <v>29</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B48" s="20">
         <v>30</v>
       </c>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="G48" s="23"/>
     </row>
-    <row r="49" spans="2:12" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B49" s="20">
         <v>31</v>
       </c>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="G49" s="23"/>
     </row>
-    <row r="50" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B50" s="20">
         <v>32</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B51" s="20">
         <v>33</v>
       </c>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="G51" s="23"/>
     </row>
-    <row r="52" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B52" s="20">
         <v>34</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="20">
         <v>35</v>
       </c>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="G53" s="23"/>
     </row>
-    <row r="54" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="20">
         <v>36</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="20">
         <v>37</v>
       </c>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="G55" s="23"/>
     </row>
-    <row r="56" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="20">
         <v>38</v>
       </c>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="G56" s="23"/>
     </row>
-    <row r="57" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:12" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="B57" s="20">
         <v>39</v>
       </c>
@@ -5895,7 +5895,7 @@
       <c r="G57" s="23"/>
       <c r="L57" s="27"/>
     </row>
-    <row r="58" spans="2:12" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" s="20">
         <v>40</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="2:12" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="20">
         <v>41</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" s="20">
         <v>42</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="20">
         <v>43</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="20">
         <v>44</v>
       </c>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="G62" s="23"/>
     </row>
-    <row r="63" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="20">
         <v>45</v>
       </c>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="G63" s="23"/>
     </row>
-    <row r="64" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B64" s="20">
         <v>46</v>
       </c>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="G64" s="23"/>
     </row>
-    <row r="65" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="20">
         <v>47</v>
       </c>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="G65" s="23"/>
     </row>
-    <row r="66" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="20">
         <v>48</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="20">
         <v>49</v>
       </c>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="G67" s="23"/>
     </row>
-    <row r="68" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="20">
         <v>50</v>
       </c>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="G68" s="23"/>
     </row>
-    <row r="69" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="20">
         <v>51</v>
       </c>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="G69" s="23"/>
     </row>
-    <row r="70" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="20">
         <v>52</v>
       </c>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="G70" s="23"/>
     </row>
-    <row r="71" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B71" s="20">
         <v>53</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="2:7" s="20" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" s="20" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B72" s="20">
         <v>54</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B73" s="20">
         <v>55</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B74" s="20">
         <v>56</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B75" s="20">
         <v>57</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B76" s="20">
         <v>58</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:7" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B77" s="20">
         <v>59</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="78" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="20">
         <v>60</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" s="20">
         <v>61</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="20">
         <v>62</v>
       </c>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="G80" s="23"/>
     </row>
-    <row r="81" spans="2:7" s="20" customFormat="1" ht="172" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" s="20" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="B81" s="20">
         <v>63</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B82" s="20">
         <v>64</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="20">
         <v>65</v>
       </c>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="G83" s="23"/>
     </row>
-    <row r="84" spans="2:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B84" s="20">
         <v>66</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B85" s="20">
         <v>67</v>
       </c>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="G85" s="23"/>
     </row>
-    <row r="86" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B86" s="20">
         <v>68</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:7" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B87" s="20">
         <v>69</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="88" spans="2:7" s="20" customFormat="1" ht="229.35" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:7" s="20" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="B88" s="20">
         <v>70</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="89" spans="2:7" s="20" customFormat="1" ht="258" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:7" s="20" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="B89" s="20" t="s">
         <v>336</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="90" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B90" s="20" t="s">
         <v>339</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="91" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B91" s="20" t="s">
         <v>342</v>
       </c>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="G91" s="59"/>
     </row>
-    <row r="92" spans="2:7" s="20" customFormat="1" ht="186.35" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:7" s="20" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="B92" s="20">
         <v>71</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="93" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B93" s="20">
         <v>71</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B94" s="20">
         <v>72</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="95" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="20">
         <v>73</v>
       </c>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="G95" s="23"/>
     </row>
-    <row r="96" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B96" s="20">
         <v>74</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="20">
         <v>75</v>
       </c>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="G97" s="23"/>
     </row>
-    <row r="98" spans="2:7" s="20" customFormat="1" ht="129" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:7" s="20" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B98" s="20">
         <v>76</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="2:7" s="20" customFormat="1" ht="329.7" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:7" s="20" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="B99" s="20">
         <v>77</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="100" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:7" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B100" s="20">
         <v>78</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="101" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:7" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B101" s="20">
         <v>79</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="102" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="20">
         <v>80</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="2:7" s="20" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:7" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B103" s="20">
         <v>81</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="104" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="20">
         <v>82</v>
       </c>
@@ -6852,7 +6852,7 @@
       </c>
       <c r="G104" s="23"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="20">
         <v>83</v>
       </c>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="G105" s="23"/>
     </row>
-    <row r="106" spans="2:7" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B106" s="20">
         <v>84</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B107" s="20">
         <v>85</v>
       </c>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="G107" s="23"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="20">
         <v>86</v>
       </c>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="G108" s="23"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="20">
         <v>87</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B110" s="20">
         <v>88</v>
       </c>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="G110" s="23"/>
     </row>
-    <row r="111" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:7" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B111" s="20">
         <v>89</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B112" s="20">
         <v>90</v>
       </c>
@@ -7010,7 +7010,7 @@
       </c>
       <c r="G112" s="23"/>
     </row>
-    <row r="113" spans="2:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B113" s="20">
         <v>91</v>
       </c>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="G113" s="23"/>
     </row>
-    <row r="114" spans="2:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B114" s="20">
         <v>92</v>
       </c>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="G114" s="23"/>
     </row>
-    <row r="115" spans="2:7" ht="129" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B115" s="20">
         <v>93</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="20">
         <v>94</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="F116" s="23"/>
       <c r="G116" s="23"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="20">
         <v>95</v>
       </c>
@@ -7089,7 +7089,7 @@
       <c r="F117" s="23"/>
       <c r="G117" s="23"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="20">
         <v>96</v>
       </c>
@@ -7099,7 +7099,7 @@
       <c r="F118" s="23"/>
       <c r="G118" s="23"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="20">
         <v>97</v>
       </c>
@@ -7109,7 +7109,7 @@
       <c r="F119" s="23"/>
       <c r="G119" s="23"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="20">
         <v>98</v>
       </c>
@@ -7119,7 +7119,7 @@
       <c r="F120" s="23"/>
       <c r="G120" s="23"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="20">
         <v>99</v>
       </c>
@@ -7129,7 +7129,7 @@
       <c r="F121" s="23"/>
       <c r="G121" s="23"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="20">
         <v>100</v>
       </c>
@@ -7140,7 +7140,7 @@
       <c r="G122" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pK4lCRuUucp9ZM5cLyOqbNgIV5EVUIG/+E/+JkLCPgpM2O3ewrIM6VdQw1+rofiAnuVLx45kiCzGW4eVhKzVRA==" saltValue="4wov+jZQIX+Ap/VcQAob4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Lpg43YAqfeK54GSsyGt9ipAXoZehtKtQHCnjqEHDE9dZ/Ou7bck8GnhrmqeHA8x1uXHXi0mhi9ZRdLgqkPJyug==" saltValue="fSJ1I5bS55fkCaAxmQF2Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$11</formula>
@@ -7164,21 +7164,21 @@
       <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="92.29296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1171875" customWidth="1"/>
-    <col min="4" max="5" width="16.703125" customWidth="1"/>
-    <col min="6" max="17" width="16.703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="17" width="16.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="71" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="71" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="71" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -7198,7 +7198,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -7217,7 +7217,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -7236,7 +7236,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -7249,12 +7249,12 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" s="72" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:17" s="72" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="72" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -7267,7 +7267,7 @@
       <c r="P9"/>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>187</v>
       </c>
@@ -7289,7 +7289,7 @@
       <c r="P10" s="73"/>
       <c r="Q10" s="73"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>190</v>
       </c>
@@ -7303,7 +7303,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>192</v>
       </c>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>191</v>
       </c>
@@ -7331,80 +7331,80 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="15" spans="1:17" s="72" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" s="72" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="72" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f t="shared" ref="B37:B43" si="0">D38</f>
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
@@ -7423,7 +7423,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>Gas Control Device/Control System Component</v>
@@ -7442,7 +7442,7 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>Landfill Surface: Daily Cover</v>
@@ -7460,7 +7460,7 @@
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>Landfill Surface: Final Cover</v>
@@ -7478,7 +7478,7 @@
       <c r="P40"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>Landfill Surface: Intermediate Cover</v>
@@ -7496,7 +7496,7 @@
       <c r="P41"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>Leachate Management System</v>
@@ -7514,7 +7514,7 @@
       <c r="P42"/>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
@@ -7532,25 +7532,25 @@
       <c r="P43"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D44" s="7" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="16"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="67" t="str" cm="1">
         <f t="array" ref="B48:B58">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn.TOCOL(C64:M70, 1)))</f>
         <v>Collection system downtime</v>
@@ -7558,89 +7558,89 @@
       <c r="E48" s="7"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="69" t="str">
         <v>Construction - New Well Installation</v>
       </c>
       <c r="E49" s="7"/>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="70" t="str">
         <v>Construction - Well Raising or Horizontal Extension</v>
       </c>
       <c r="E50" s="7"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="68" t="str">
         <v>Cover integrity</v>
       </c>
       <c r="E51" s="7"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="67" t="str">
         <v>Cover-related Construction (Excavation/ Exposed Operations/ Re-grading)</v>
       </c>
       <c r="E52" s="7"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="68" t="str">
         <v>Cracked/Broken Seal</v>
       </c>
       <c r="E53" s="7"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="67" t="str">
         <v>Damaged component</v>
       </c>
       <c r="E54" s="7"/>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="67" t="str">
         <v>Insufficient vacuum</v>
       </c>
       <c r="E55" s="7"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="69" t="str">
         <v>Offline Gas Collection Well(s)</v>
       </c>
       <c r="E56" s="7"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="70" t="str">
         <v>Other</v>
       </c>
       <c r="E57" s="7"/>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="68" t="str">
         <v>Uncontrolled Area (no gas collection infrastructure)</v>
       </c>
       <c r="E58" s="7"/>
       <c r="Q58"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="2:17" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="62" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
         <v>176</v>
       </c>
@@ -7648,7 +7648,7 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="2:17" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>177</v>
       </c>
@@ -7658,7 +7658,7 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="2:17" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:17" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>399</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>167</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>168</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>169</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>170</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>186</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>13</v>
       </c>
@@ -7874,12 +7874,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="str" cm="1">
         <f t="array" ref="B74:C125">_xlfn.HSTACK(_xlfn.TOCOL(_xlfn.IFS(C64:M70&lt;&gt;"",B64:B70),3),_xlfn.TOCOL(C64:M70,1))</f>
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
@@ -7889,7 +7889,7 @@
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="G75"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="G76"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="G77"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="G79"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="G80"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="G82"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7970,7 +7970,7 @@
       </c>
       <c r="G83"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="G84"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="G85"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="G86"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="G91"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="G94"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="G95"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="G96"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="G97"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="G98"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="G99"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="G100"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8132,7 +8132,7 @@
       </c>
       <c r="G101"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="G102"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="G103"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="G104"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="G105"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="G106"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="G107"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="G108"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8204,7 +8204,7 @@
       </c>
       <c r="G109"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="G110"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="G111"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="G112"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="G113"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="G114"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8258,7 +8258,7 @@
       </c>
       <c r="G115"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="G116"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="G117"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="G118"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="G119"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="G120"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8312,7 +8312,7 @@
       </c>
       <c r="G121"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="G122"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>Cover-related Construction (Excavation/ Exposed Operations/ Re-grading)</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="G124"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8347,21 +8347,21 @@
       </c>
       <c r="G125"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G126"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G134"/>
     </row>
-    <row r="135" spans="2:7" s="72" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="135" spans="2:7" s="72" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B135" s="72" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G136"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="17" t="s">
         <v>193</v>
       </c>
@@ -8370,12 +8370,12 @@
       </c>
       <c r="G137"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
       <c r="G138"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>163</v>
       </c>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="G139"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" t="str" cm="1">
         <f t="array" ref="B140:B142">_carb_only_table_02[]</f>
         <v>Operator was aware of the leak prior to receiving the CARB plume notification</v>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="G140"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" t="str">
         <v>Operator detected a leak during follow-up monitoring after receipt of the CARB plume notification</v>
       </c>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="G141"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" t="str">
         <v>No leak was detected</v>
       </c>
@@ -8413,18 +8413,18 @@
       </c>
       <c r="G142"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G143"/>
     </row>
-    <row r="144" spans="2:7" s="72" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="144" spans="2:7" s="72" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B144" s="72" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G145"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="17" t="s">
         <v>193</v>
       </c>
@@ -8433,12 +8433,12 @@
       </c>
       <c r="G146"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
       <c r="G147"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>163</v>
       </c>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="G148"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="G149"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" t="str" cm="1">
         <f t="array" ref="B150:B153">_carb_only_table_03[]</f>
         <v>Operator was aware of the leak prior to receiving the notification, and/or repairs were in progress on the date of the plume observation</v>
@@ -8470,7 +8470,7 @@
       </c>
       <c r="G150"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" t="str">
         <v>An unintentional leak  (i.e., the operator was not aware of, and could be repaired if discovered)</v>
       </c>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="G151"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" t="str">
         <v>An intentional or allowable vent (i.e., the operator was aware of, and/or would not repair)</v>
       </c>
@@ -8490,24 +8490,24 @@
       </c>
       <c r="G152"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" t="str">
         <v>Due to a temporary activity (i.e., would be resolved without corrective action when the activity is complete)</v>
       </c>
       <c r="G153"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G154"/>
     </row>
-    <row r="155" spans="2:7" s="72" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="155" spans="2:7" s="72" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B155" s="72" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G156"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="17" t="s">
         <v>193</v>
       </c>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="G157"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
       <c r="G158"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>163</v>
       </c>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="G159"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="G160"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" t="str" cm="1">
         <f t="array" ref="B161:B167">_carb_only_table_04[]</f>
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8573,7 +8573,7 @@
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="G164"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8593,7 +8593,7 @@
       </c>
       <c r="G165"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8603,24 +8603,24 @@
       </c>
       <c r="G166"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
       <c r="G167"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G168"/>
     </row>
-    <row r="169" spans="2:7" s="72" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="169" spans="2:7" s="72" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B169" s="72" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G170"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="17" t="s">
         <v>193</v>
       </c>
@@ -8629,12 +8629,12 @@
       </c>
       <c r="G171"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
       <c r="G172"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>163</v>
       </c>
@@ -8644,74 +8644,74 @@
       </c>
       <c r="G173"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
       </c>
       <c r="G174"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" t="str" cm="1">
         <f t="array" aca="1" ref="B175" ca="1">_xlfn._xlws.FILTER($C$74:$C$125, $B$74:$B$125=C13, "")</f>
         <v/>
       </c>
       <c r="G175"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G176"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G177"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G178"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G179"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G180"/>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G181"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G182"/>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G183"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G184"/>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G185"/>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G186"/>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G187"/>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G188"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G189"/>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G190"/>
     </row>
-    <row r="191" spans="2:7" s="72" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="191" spans="2:7" s="72" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B191" s="72" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G192"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="17" t="s">
         <v>193</v>
       </c>
@@ -8720,12 +8720,12 @@
       </c>
       <c r="G193"/>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="16"/>
       <c r="C194" s="16"/>
       <c r="G194"/>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>163</v>
       </c>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="G195"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
@@ -8746,65 +8746,65 @@
       </c>
       <c r="G196"/>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>355</v>
       </c>
       <c r="G197"/>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" t="str" cm="1">
         <f t="array" aca="1" ref="B198" ca="1">_xlfn._xlws.FILTER($C$74:$C$125, $B$74:$B$125=C13, "")</f>
         <v/>
       </c>
       <c r="G198"/>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G199"/>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G200"/>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G201"/>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G202"/>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G203"/>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G204"/>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G205"/>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G206"/>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G207"/>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G208"/>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G209"/>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G210"/>
     </row>
-    <row r="213" spans="2:7" s="72" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="213" spans="2:7" s="72" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B213" s="72" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="16"/>
       <c r="G214"/>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="17" t="s">
         <v>193</v>
       </c>
@@ -8813,12 +8813,12 @@
       </c>
       <c r="G215"/>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="16"/>
       <c r="C216" s="16"/>
       <c r="G216"/>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>163</v>
       </c>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="G217"/>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" t="str" cm="1">
         <f t="array" ref="B218:B219">_carb_only_table_01[]</f>
         <v>Yes</v>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="G218"/>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" t="str">
         <v>No</v>
       </c>
@@ -8848,7 +8848,7 @@
       <c r="G219"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pGzhf3OKBKsOKAXF3i50GfH9Yu0+AYvKq8/SS9DzrHCj3jalCWyMazQdeH0J7ZcVI4/HmNKPOJB0oivmgzfn+w==" saltValue="RzrtEEFnykDSuKvbY5IPEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="En7JGv5gVgf3vUbpLmwPJZYWiA0MLZ/t6Kl7PFTZ/Uce+Y3hnLawyg3jlgZZljlASqzLWY7aHHRify9ebcX7Qw==" saltValue="QmNlLFQHvpSAGkCD3d07HQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
@@ -8867,19 +8867,19 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="14" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:3" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
         <v>200</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>202</v>
       </c>
@@ -8928,7 +8928,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5Ayl7rDDJPkDLXZ+OyjIsVhs/IJHnM11ShMHbt9Zj/ys5DzguIjtDz3qVDqDfS+ba35FcwEpMFvoRqK1d4pguQ==" saltValue="/C+VIQBataf3qnPYBGeNyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="n0/u1kcyBl8FjZGUKm+UWlhGMaosD3M4FH1cqbCDVAHEszmsPZfJOYX3n1+mbJm4ej6hOx8Q/Wk5r7Jt+Rhrkw==" saltValue="1fht5GCtWn6tuH1eFrJROw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8942,18 +8942,18 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="14" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -8985,12 +8985,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:3" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
         <v>206</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>208</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>210</v>
       </c>
@@ -9015,7 +9015,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xSssEUJD5GLnakjTfw576OVJH93ZgiVZMeBcoYH3wDYGwJ2GwUzW25Ij9FFQiQs/rSsHs/8yRqw9y8F/OO2bfQ==" saltValue="DU4vh+0uz/jRGtvvXR10dQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jElqzuyne+sWa39hZW4D8pKY/lSxwBTqEjnLwV+VckbodM5c8Jttlemvb8X/beMm8T8vwTGLbInifMGZCHbDxg==" saltValue="YOlLtLV6bZuq5KXcsJKsgg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9027,27 +9027,27 @@
   <dimension ref="A2:F48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D48"/>
+      <selection activeCell="A11" sqref="A11:F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="25.1171875" customWidth="1"/>
-    <col min="3" max="3" width="16.41015625" customWidth="1"/>
-    <col min="4" max="4" width="32.41015625" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C2" s="22"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -9057,26 +9057,26 @@
       <c r="C4" s="1"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
         <v>200</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>350</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>350</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>202</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>202</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>202</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>202</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>202</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>202</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>202</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>202</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>202</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>202</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>202</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>202</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>202</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>202</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>202</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>202</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>202</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>202</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>202</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>202</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>202</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>202</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>202</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>202</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>202</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>202</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>202</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>202</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>202</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>202</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>202</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>202</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>45468</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>202</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>202</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>202</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>202</v>
       </c>
@@ -9740,7 +9740,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="c08jDrOWCeAU0BiakYRuIa3KWiJJffebpIi+mYVhgZLKqOsqtbf5RgVDu4hxVMOWDAsjn0fbQKD0ZM67/zyBTw==" saltValue="Fs6v62U2AovKaWY974nxWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="D/mZjPwEVUi6Fuo0hufhV59L4I/ywJ/pfq/n+kwV4p5CzEIJW/gSBIjqOmG9Q4hb9YQRNy55m4r/G0g867L6sw==" saltValue="prv38ABnUtAcnWeN5UHQhw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:F48">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
@@ -9759,29 +9759,29 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.87890625" customWidth="1"/>
-    <col min="5" max="5" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5859375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.29296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.29296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.29296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:13" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>418</v>
       </c>
       <c r="C2" s="22"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="6" spans="2:13" ht="86" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="78" t="s">
         <v>406</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
@@ -9833,7 +9833,7 @@
       <c r="L7" s="80"/>
       <c r="M7" s="80"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
@@ -9847,7 +9847,7 @@
       <c r="L8" s="80"/>
       <c r="M8" s="80"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
@@ -9861,7 +9861,7 @@
       <c r="L9" s="80"/>
       <c r="M9" s="80"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -9875,7 +9875,7 @@
       <c r="L10" s="80"/>
       <c r="M10" s="80"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -9889,7 +9889,7 @@
       <c r="L11" s="80"/>
       <c r="M11" s="80"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -9903,7 +9903,7 @@
       <c r="L12" s="80"/>
       <c r="M12" s="80"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -9917,7 +9917,7 @@
       <c r="L13" s="80"/>
       <c r="M13" s="80"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
       <c r="D14" s="80"/>
@@ -9931,7 +9931,7 @@
       <c r="L14" s="80"/>
       <c r="M14" s="80"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
       <c r="D15" s="80"/>
@@ -9945,7 +9945,7 @@
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
       <c r="D16" s="80"/>
@@ -9959,7 +9959,7 @@
       <c r="L16" s="80"/>
       <c r="M16" s="80"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="80"/>
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
@@ -9973,7 +9973,7 @@
       <c r="L17" s="80"/>
       <c r="M17" s="80"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
@@ -9987,7 +9987,7 @@
       <c r="L18" s="80"/>
       <c r="M18" s="80"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="80"/>
       <c r="C19" s="80"/>
       <c r="D19" s="80"/>
@@ -10001,7 +10001,7 @@
       <c r="L19" s="80"/>
       <c r="M19" s="80"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
       <c r="D20" s="80"/>
@@ -10015,7 +10015,7 @@
       <c r="L20" s="80"/>
       <c r="M20" s="80"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="80"/>
       <c r="C21" s="80"/>
       <c r="D21" s="80"/>
@@ -10029,7 +10029,7 @@
       <c r="L21" s="80"/>
       <c r="M21" s="80"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
       <c r="D22" s="80"/>
@@ -10043,7 +10043,7 @@
       <c r="L22" s="80"/>
       <c r="M22" s="80"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
       <c r="D23" s="80"/>
@@ -10057,7 +10057,7 @@
       <c r="L23" s="80"/>
       <c r="M23" s="80"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
       <c r="D24" s="80"/>
@@ -10071,7 +10071,7 @@
       <c r="L24" s="80"/>
       <c r="M24" s="80"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
       <c r="D25" s="80"/>
@@ -10085,7 +10085,7 @@
       <c r="L25" s="80"/>
       <c r="M25" s="80"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
@@ -10100,32 +10100,12 @@
       <c r="M26" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lfFASv6oAiLINUCn9fcTdqY4vsD+nZgw3SQ06f0PTt2lsNXTvIewPVKZzOxKV0BaBpQ2sosoNSyyNpeQiNEF9w==" saltValue="GPAeP8onYd5Wd3k+rjYY2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DCmyMC8rzv7ysam0QVyHA5cvZEbwIodKdVoxo3a9kQLm4JUvMV9IZCj9v5W273x9K3qKuxJG/5N3dWchrZvXPA==" saltValue="0zB7XvHBqXC3fKBfSCqQxA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -10360,26 +10340,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10398,6 +10379,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>

--- a/feedback_forms/processed_versions/xl_workbooks/landfill_operator_feedback_v070_populated_02.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/landfill_operator_feedback_v070_populated_02.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4451CBA-8CCF-4816-9C2E-98FC682F1324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8AS31lxtpJkYykDSF7KBPN3325WO2ISE7/pSgK74ci6sO7kCHXvtorjKgpt1JXoj+JeJ3SO56SByqa1pwuIhHw==" workbookSaltValue="5Ir9MkMI+MOSJSTsLsUS/Q==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D389231F-75F6-4ED8-9C0A-65AD93DAEAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="IlaP+OLUA+o4WV2rL0zjc11ddrK2lKB4RS/K3dYFr4ndVQaCD9Fx3rkKI/4+uoMpfVufYGOKcgK6GRdzYJKqzg==" workbookSaltValue="6S70W+zXLfNZMurof0cgQA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="5353" yWindow="2093" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="4707" yWindow="2133" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <definedName name="jinja_re_monitored_concentration">'Feedback Form'!$D$63</definedName>
     <definedName name="jinja_re_monitored_timestamp">'Feedback Form'!$D$62</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3965,7 +3965,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -4803,7 +4805,7 @@
       <c r="G73" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z7HOBED1rsIXg1kaDjhe5PakfJn/TR69vyF4RQJQuAHFXL5dBTt0Go2fNpYkgtO2o40xO8VkDHg7WXteKpFocA==" saltValue="pTVeudE8tnWmedg/EibIUg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B0f1ySbqWfrrmr3/vXPJKhnI32auZLZdHHUdrcoPvIuXMie1Bi1rwdvRucfvAXzA+qe6BFicLeWLdJmQBLkOzw==" saltValue="UDXjCaKoqpxeCEIh7FJgeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D42">
     <cfRule type="expression" dxfId="13" priority="11">
       <formula xml:space="preserve"> IF(LEFT($D$42, 13)="Please Select", TRUE)</formula>
@@ -5107,7 +5109,7 @@
       <c r="D26" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="c8R/SSpW6TToZomGPki2uAR7uurEGslv7eQx+IxpJi/5WPv4dT+e9CEGmucynkbvxdGQvR0htnG/4wI/xxO+8g==" saltValue="W1wl5adBPa+BMfTmNJ/Cyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sq1mzNQXFHPs7zgSAJlvUH3WTge5BgQBTxz36Dj+2Ei83yuEzHP92UOkVQEgd8Ar731eCraKjlsqpgpF65nKlQ==" saltValue="xfIO2HFYS2qYmO5kEdAHSg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -7334,7 +7336,7 @@
       <c r="G122" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XXNAerKyxpXRIKdaLmDWYSjjSYPmn6/IwEYSnNtkpYNZCgKg0sBPrFbyUHufmhd1gnlq2QXRl3Baw5w2J02Fpg==" saltValue="b2SBDO6iaZtanMSFyx47Tw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u7W8Yl3xgUUcpZaWcB8gYPKa8E+tzZEwhq0Yhojcdg5ds2znjbpNm0cWryo00xgD2xNQu7fJytrOBqXpM37biQ==" saltValue="FlpAjnl07dG5cuQbYoYnYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$11</formula>
@@ -9042,7 +9044,7 @@
       <c r="G219"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7jyTE16rc9Cy9eLVoT2DDuQzxMv6rRoBdO+ce8neyxqu1S6249aagPJw1e44qphqgGL0eHqHhdGkqlukxPf4cA==" saltValue="+jWuM9MeKyyyYctom6PKXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JEJCOwkAKDHgakfoK3A4MnkSc7RHTM8HhXCwrH0rwLuFbHs/LhocHwXmRGF2QxcbNqDgAnPoj7DsGykrZxVx0g==" saltValue="KjjDkGJ8YRNyj0k2d8OhJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
@@ -9124,7 +9126,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GhuQEfL9HvHo1i16UybtXE+ZYNeK2W/n2DbLRjW0gF6HhvZVr4PapTdgmEE/xzYldDIFao7aDN96oe6E/yyeUg==" saltValue="S22R5UNqUNscJxHeZglPAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jpOU0ZmYZNuwcF3eDpR5HRIcL1GtYKqHGIYbe5oU36KylZLGq9bQ2kGtziwPxf5iLs6unGk1tQm4CIJsOrGSZA==" saltValue="COc4yvZjFxEuvz+TwUo+HA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9211,7 +9213,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="o4AQOeow1zZgAv22GPBaZsUIbkpGaGjURiFoUsEkWju+24TuKNAbD34FdHpZ5PaExFotEvl9Dx07JDtmMtHAPA==" saltValue="StCbCzgBxlOJFcVALKMTGA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NHO5MyJHBYNSY7rFrHnyY4/5zQBkqG2M44xb4pNOzXmnj2ArRdlxYP/vYRc2Ee7k90WdSl4+BQYN0pX56bvwfQ==" saltValue="oyFrYoZULaJf9LqEPaor6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9936,7 +9938,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EIUGnGJaSpCMZPE94DMob0RZJlJNx+ZzNuw9Ih/Twc7N4rrcQUXJ3/9IOw86owA12ycTxNQxdqCDN2XlYi0iUw==" saltValue="AB4PjmoiDHtNwaJXbjEovg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8bZ1YrA4uhc06zvo+b5R3uWnOYt5LUU6Prr/XsFladXZLI9t1Bw35NBz8JSdQclye4Y7w/5Dja2++jRMhVG8Zw==" saltValue="J7yI1dLEEtPbA52blhnT4g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:F48">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
@@ -10296,32 +10298,12 @@
       <c r="M26" s="79"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vODWlJe3RtWovGRPms8lZGSar3Q0Q4J4AR9+SJ6RPNVvXL6b7s+MwEZVeNwDxMi7s+tL1oozDivZHEwgn4j7Jg==" saltValue="tdFI0StpuB28YCLUh6+bWA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Wf1ZvsgyIbgEMN64XSxu8A8GiHX2qsMIH7IaqNz0d55IE+krh87ASDbm6XrUH24TvbYEn0f80UFgP7KKC6s35g==" saltValue="IVMxDiHXQG0CHdYZra8TBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -10556,26 +10538,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10594,6 +10577,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>
